--- a/CR - Cost Report/2_CBOM/Cost_v1.2.xlsx
+++ b/CR - Cost Report/2_CBOM/Cost_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thilv\Desktop\EPSA\STUF-2020\CR - Cost Report\2_CBOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FB021-0E3B-43B3-88CF-195DA2270C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB826C3A-19EE-450B-BDA7-CF3A4DAA952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCC80F8F-209D-4EE0-B38E-B50CD23ACA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -3194,186 +3194,195 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -3496,15 +3505,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6716,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6733,11 +6733,11 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
@@ -6748,29 +6748,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
       <c r="D1" s="46"/>
-      <c r="F1" s="290" t="s">
+      <c r="F1" s="251" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="292"/>
-      <c r="L1" s="293" t="s">
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="253"/>
+      <c r="L1" s="254" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
-      <c r="Q1" s="294"/>
-      <c r="R1" s="294"/>
-      <c r="S1" s="295"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="255"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="255"/>
+      <c r="Q1" s="255"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="256"/>
     </row>
     <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
@@ -6823,7 +6823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>43</v>
       </c>
@@ -6834,7 +6834,7 @@
         <f>'Manpower &amp; time'!D8</f>
         <v>21161</v>
       </c>
-      <c r="D3" s="276" t="s">
+      <c r="D3" s="275" t="s">
         <v>481</v>
       </c>
       <c r="F3" s="104" t="s">
@@ -6854,10 +6854,10 @@
         <f>H3/I3</f>
         <v>242.80000000000004</v>
       </c>
-      <c r="L3" s="242" t="s">
+      <c r="L3" s="261" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="254"/>
+      <c r="M3" s="290"/>
       <c r="N3" s="98" t="s">
         <v>188</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>10802</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="26" t="s">
         <v>44</v>
@@ -6886,7 +6886,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="276"/>
       <c r="F4" s="105"/>
       <c r="G4" s="99" t="s">
         <v>179</v>
@@ -6927,7 +6927,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="26" t="s">
         <v>45</v>
@@ -6936,7 +6936,7 @@
         <f>'Manpower &amp; time'!D11</f>
         <v>71259</v>
       </c>
-      <c r="D5" s="277"/>
+      <c r="D5" s="276"/>
       <c r="F5" s="105"/>
       <c r="G5" s="99" t="s">
         <v>178</v>
@@ -6978,7 +6978,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
       <c r="B6" s="60" t="s">
         <v>46</v>
@@ -6987,7 +6987,7 @@
         <f>'Manpower &amp; time'!D9</f>
         <v>40641</v>
       </c>
-      <c r="D6" s="278"/>
+      <c r="D6" s="277"/>
       <c r="F6" s="105"/>
       <c r="G6" s="99" t="s">
         <v>32</v>
@@ -7030,7 +7030,7 @@
         <v>5401</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>47</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="R7" s="26"/>
       <c r="S7" s="139"/>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="26" t="s">
         <v>49</v>
@@ -7126,7 +7126,7 @@
       <c r="R8" s="26"/>
       <c r="S8" s="139"/>
     </row>
-    <row r="9" spans="1:19" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="26" t="s">
         <v>50</v>
@@ -7180,7 +7180,7 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
       <c r="B10" s="60" t="s">
         <v>223</v>
@@ -7221,7 +7221,7 @@
       <c r="R10" s="60"/>
       <c r="S10" s="71"/>
     </row>
-    <row r="11" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>280</v>
       </c>
@@ -7248,10 +7248,10 @@
         <f t="shared" si="0"/>
         <v>1999.4687999999999</v>
       </c>
-      <c r="L11" s="247" t="s">
+      <c r="L11" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="272"/>
+      <c r="M11" s="271"/>
       <c r="N11" s="98" t="s">
         <v>290</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>13372</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
       <c r="B12" s="26" t="s">
         <v>146</v>
@@ -7321,7 +7321,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70"/>
       <c r="B13" s="60" t="s">
         <v>483</v>
@@ -7374,7 +7374,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>281</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74"/>
       <c r="B15" s="60" t="s">
         <v>164</v>
@@ -7474,7 +7474,7 @@
       <c r="R15" s="26"/>
       <c r="S15" s="139"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="112"/>
       <c r="G16" s="100" t="s">
         <v>237</v>
@@ -7512,7 +7512,7 @@
       <c r="R16" s="26"/>
       <c r="S16" s="139"/>
     </row>
-    <row r="17" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F17" s="113" t="s">
         <v>34</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>88.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="4:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="114"/>
       <c r="G18" s="99" t="s">
         <v>186</v>
@@ -7587,7 +7587,7 @@
       <c r="R18" s="60"/>
       <c r="S18" s="71"/>
     </row>
-    <row r="19" spans="4:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:19" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="F19" s="114"/>
       <c r="G19" s="157" t="s">
@@ -7604,10 +7604,10 @@
         <f t="shared" si="0"/>
         <v>261.39000000000004</v>
       </c>
-      <c r="L19" s="255" t="s">
+      <c r="L19" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="256"/>
+      <c r="M19" s="292"/>
       <c r="N19" s="98" t="s">
         <v>21</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10877.041708753171</v>
       </c>
     </row>
-    <row r="20" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F20" s="114"/>
       <c r="G20" s="99" t="s">
         <v>165</v>
@@ -7670,7 +7670,7 @@
         <v>5438.5208543765866</v>
       </c>
     </row>
-    <row r="21" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F21" s="114"/>
       <c r="G21" s="99" t="s">
         <v>166</v>
@@ -7708,7 +7708,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="139"/>
     </row>
-    <row r="22" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F22" s="114"/>
       <c r="G22" s="99" t="s">
         <v>36</v>
@@ -7746,7 +7746,7 @@
       <c r="R22" s="26"/>
       <c r="S22" s="139"/>
     </row>
-    <row r="23" spans="4:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F23" s="115"/>
       <c r="G23" s="100" t="s">
         <v>348</v>
@@ -7775,7 +7775,7 @@
       <c r="R23" s="82"/>
       <c r="S23" s="143"/>
     </row>
-    <row r="24" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F24" s="104" t="s">
         <v>342</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="R24" s="82"/>
       <c r="S24" s="144"/>
     </row>
-    <row r="25" spans="4:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="106"/>
       <c r="G25" s="100" t="s">
         <v>282</v>
@@ -7834,7 +7834,7 @@
       <c r="R25" s="84"/>
       <c r="S25" s="145"/>
     </row>
-    <row r="26" spans="4:19" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="107" t="s">
         <v>39</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="R26" s="60"/>
       <c r="S26" s="71"/>
     </row>
-    <row r="27" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F27" s="108"/>
       <c r="G27" s="99" t="s">
         <v>350</v>
@@ -7904,7 +7904,7 @@
         <v>530.86</v>
       </c>
     </row>
-    <row r="28" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F28" s="108"/>
       <c r="G28" s="99" t="s">
         <v>456</v>
@@ -7941,7 +7941,7 @@
         <v>385.96</v>
       </c>
     </row>
-    <row r="29" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F29" s="108"/>
       <c r="G29" s="99" t="s">
         <v>271</v>
@@ -7983,7 +7983,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="30" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F30" s="108"/>
       <c r="G30" s="157" t="s">
         <v>325</v>
@@ -8025,7 +8025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F31" s="108"/>
       <c r="G31" s="99" t="s">
         <v>326</v>
@@ -8061,7 +8061,7 @@
         <v>857.9</v>
       </c>
     </row>
-    <row r="32" spans="4:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F32" s="108"/>
       <c r="G32" s="99" t="s">
         <v>327</v>
@@ -8099,7 +8099,7 @@
         <v>275.04599999999999</v>
       </c>
     </row>
-    <row r="33" spans="6:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F33" s="108"/>
       <c r="G33" s="99" t="s">
         <v>331</v>
@@ -8133,7 +8133,7 @@
       <c r="R33" s="26"/>
       <c r="S33" s="139"/>
     </row>
-    <row r="34" spans="6:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F34" s="108"/>
       <c r="G34" s="99" t="s">
         <v>40</v>
@@ -8154,10 +8154,10 @@
       <c r="N34" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="O34" s="296" t="s">
+      <c r="O34" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="P34" s="297" t="s">
+      <c r="P34" s="258" t="s">
         <v>421</v>
       </c>
       <c r="Q34" s="29">
@@ -8167,7 +8167,7 @@
       <c r="R34" s="26"/>
       <c r="S34" s="139"/>
     </row>
-    <row r="35" spans="6:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F35" s="108"/>
       <c r="G35" s="99" t="s">
         <v>343</v>
@@ -8188,8 +8188,8 @@
       <c r="N35" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="O35" s="296"/>
-      <c r="P35" s="297"/>
+      <c r="O35" s="257"/>
+      <c r="P35" s="258"/>
       <c r="Q35" s="29">
         <f>Welding!B23</f>
         <v>5.0185057685504804E-2</v>
@@ -8197,7 +8197,7 @@
       <c r="R35" s="26"/>
       <c r="S35" s="139"/>
     </row>
-    <row r="36" spans="6:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="108"/>
       <c r="G36" s="102" t="s">
         <v>323</v>
@@ -8231,7 +8231,7 @@
       <c r="R36" s="60"/>
       <c r="S36" s="71"/>
     </row>
-    <row r="37" spans="6:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F37" s="108"/>
       <c r="G37" s="102" t="s">
         <v>324</v>
@@ -8247,10 +8247,10 @@
         <f>H37/I37</f>
         <v>1874.5019999999997</v>
       </c>
-      <c r="L37" s="247" t="s">
+      <c r="L37" s="270" t="s">
         <v>363</v>
       </c>
-      <c r="M37" s="272"/>
+      <c r="M37" s="271"/>
       <c r="N37" s="98" t="s">
         <v>427</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="6:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="109"/>
       <c r="G38" s="103" t="s">
         <v>458</v>
@@ -8311,7 +8311,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="6:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="J39" s="6"/>
@@ -8340,14 +8340,14 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="40" spans="6:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="265" t="s">
+    <row r="40" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="263" t="s">
         <v>485</v>
       </c>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="266"/>
-      <c r="J40" s="267"/>
+      <c r="G40" s="264"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="265"/>
       <c r="L40" s="42" t="s">
         <v>206</v>
       </c>
@@ -8375,15 +8375,15 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="6:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="279" t="s">
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="278" t="s">
         <v>283</v>
       </c>
-      <c r="G41" s="270" t="s">
+      <c r="G41" s="268" t="s">
         <v>444</v>
       </c>
-      <c r="H41" s="270"/>
-      <c r="I41" s="271"/>
+      <c r="H41" s="268"/>
+      <c r="I41" s="269"/>
       <c r="J41" s="85">
         <f>SUM(J3:J38)*1.05</f>
         <v>127700.70111809715</v>
@@ -8411,13 +8411,13 @@
       <c r="R41" s="26"/>
       <c r="S41" s="139"/>
     </row>
-    <row r="42" spans="6:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="280"/>
-      <c r="G42" s="268" t="s">
+    <row r="42" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="279"/>
+      <c r="G42" s="266" t="s">
         <v>249</v>
       </c>
-      <c r="H42" s="268"/>
-      <c r="I42" s="269"/>
+      <c r="H42" s="266"/>
+      <c r="I42" s="267"/>
       <c r="J42" s="86">
         <f>J41/SUM('Manpower &amp; time'!C32:J32)</f>
         <v>11.714929813378353</v>
@@ -8444,22 +8444,22 @@
       <c r="S42" s="71"/>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F43" s="281" t="s">
+      <c r="F43" s="280" t="s">
         <v>284</v>
       </c>
-      <c r="G43" s="271" t="s">
+      <c r="G43" s="269" t="s">
         <v>285</v>
       </c>
-      <c r="H43" s="273"/>
-      <c r="I43" s="273"/>
+      <c r="H43" s="272"/>
+      <c r="I43" s="272"/>
       <c r="J43" s="87">
         <f>'Manpower &amp; time'!H8</f>
         <v>12.595833333333333</v>
       </c>
-      <c r="L43" s="242" t="s">
+      <c r="L43" s="261" t="s">
         <v>571</v>
       </c>
-      <c r="M43" s="254"/>
+      <c r="M43" s="290"/>
       <c r="N43" s="98" t="s">
         <v>563</v>
       </c>
@@ -8479,12 +8479,12 @@
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F44" s="282"/>
-      <c r="G44" s="274" t="s">
+      <c r="F44" s="281"/>
+      <c r="G44" s="273" t="s">
         <v>296</v>
       </c>
-      <c r="H44" s="275"/>
-      <c r="I44" s="275"/>
+      <c r="H44" s="274"/>
+      <c r="I44" s="274"/>
       <c r="J44" s="88">
         <f>'Manpower &amp; time'!H9</f>
         <v>24.191071428571426</v>
@@ -8503,12 +8503,12 @@
       <c r="S44" s="59"/>
     </row>
     <row r="45" spans="6:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="282"/>
-      <c r="G45" s="274" t="s">
+      <c r="F45" s="281"/>
+      <c r="G45" s="273" t="s">
         <v>438</v>
       </c>
-      <c r="H45" s="275"/>
-      <c r="I45" s="275"/>
+      <c r="H45" s="274"/>
+      <c r="I45" s="274"/>
       <c r="J45" s="88">
         <f>'Manpower &amp; time'!H10</f>
         <v>30.467857142857142</v>
@@ -8527,20 +8527,20 @@
       <c r="S45" s="59"/>
     </row>
     <row r="46" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="283"/>
-      <c r="G46" s="269" t="s">
+      <c r="F46" s="282"/>
+      <c r="G46" s="267" t="s">
         <v>286</v>
       </c>
-      <c r="H46" s="287"/>
-      <c r="I46" s="287"/>
+      <c r="H46" s="286"/>
+      <c r="I46" s="286"/>
       <c r="J46" s="89">
         <f>'Manpower &amp; time'!H11</f>
         <v>42.416071428571428</v>
       </c>
-      <c r="L46" s="339" t="s">
+      <c r="L46" s="238" t="s">
         <v>222</v>
       </c>
-      <c r="M46" s="340">
+      <c r="M46" s="239">
         <v>5</v>
       </c>
       <c r="N46" s="100"/>
@@ -8555,29 +8555,29 @@
     </row>
     <row r="48" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J48" s="14"/>
-      <c r="L48" s="284" t="s">
+      <c r="L48" s="283" t="s">
         <v>486</v>
       </c>
-      <c r="M48" s="285"/>
-      <c r="N48" s="285"/>
-      <c r="O48" s="285"/>
-      <c r="P48" s="285"/>
-      <c r="Q48" s="285"/>
-      <c r="R48" s="286"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="284"/>
+      <c r="Q48" s="284"/>
+      <c r="R48" s="285"/>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I49" s="10"/>
       <c r="J49" s="14"/>
-      <c r="L49" s="242" t="s">
+      <c r="L49" s="261" t="s">
         <v>448</v>
       </c>
-      <c r="M49" s="264"/>
-      <c r="N49" s="288" t="s">
+      <c r="M49" s="262"/>
+      <c r="N49" s="287" t="s">
         <v>258</v>
       </c>
-      <c r="O49" s="288"/>
-      <c r="P49" s="288"/>
-      <c r="Q49" s="288"/>
+      <c r="O49" s="287"/>
+      <c r="P49" s="287"/>
+      <c r="Q49" s="287"/>
       <c r="R49" s="75">
         <f>SUM(S3:S6)+S9</f>
         <v>17591.025600000001</v>
@@ -8586,16 +8586,16 @@
     <row r="50" spans="6:18" x14ac:dyDescent="0.25">
       <c r="I50" s="45"/>
       <c r="J50" s="14"/>
-      <c r="L50" s="260" t="s">
+      <c r="L50" s="296" t="s">
         <v>452</v>
       </c>
-      <c r="M50" s="261"/>
-      <c r="N50" s="289" t="s">
+      <c r="M50" s="297"/>
+      <c r="N50" s="250" t="s">
         <v>259</v>
       </c>
-      <c r="O50" s="289"/>
-      <c r="P50" s="289"/>
-      <c r="Q50" s="289"/>
+      <c r="O50" s="250"/>
+      <c r="P50" s="250"/>
+      <c r="Q50" s="250"/>
       <c r="R50" s="76">
         <f>R49/(M5*C7*C8)+J42</f>
         <v>25.492362144205423</v>
@@ -8610,12 +8610,12 @@
       <c r="M51" s="38">
         <v>2.5</v>
       </c>
-      <c r="N51" s="289" t="s">
+      <c r="N51" s="250" t="s">
         <v>260</v>
       </c>
-      <c r="O51" s="289"/>
-      <c r="P51" s="289"/>
-      <c r="Q51" s="289"/>
+      <c r="O51" s="250"/>
+      <c r="P51" s="250"/>
+      <c r="Q51" s="250"/>
       <c r="R51" s="76">
         <f>R50+Q8+Q7</f>
         <v>46.895498144205419</v>
@@ -8628,22 +8628,22 @@
       <c r="M52" s="38">
         <v>0.5</v>
       </c>
-      <c r="N52" s="289"/>
-      <c r="O52" s="289"/>
-      <c r="P52" s="289"/>
-      <c r="Q52" s="289"/>
+      <c r="N52" s="250"/>
+      <c r="O52" s="250"/>
+      <c r="P52" s="250"/>
+      <c r="Q52" s="250"/>
       <c r="R52" s="77"/>
     </row>
     <row r="53" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J53" s="8"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
-      <c r="N53" s="289" t="s">
+      <c r="N53" s="250" t="s">
         <v>245</v>
       </c>
-      <c r="O53" s="289"/>
-      <c r="P53" s="289"/>
-      <c r="Q53" s="289"/>
+      <c r="O53" s="250"/>
+      <c r="P53" s="250"/>
+      <c r="Q53" s="250"/>
       <c r="R53" s="78">
         <f>('Manpower &amp; time'!H8+R51)*M7/60</f>
         <v>9.9152219129231255E-5</v>
@@ -8653,12 +8653,12 @@
       <c r="J54" s="7"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
-      <c r="N54" s="289" t="s">
+      <c r="N54" s="250" t="s">
         <v>443</v>
       </c>
-      <c r="O54" s="289"/>
-      <c r="P54" s="289"/>
-      <c r="Q54" s="289"/>
+      <c r="O54" s="250"/>
+      <c r="P54" s="250"/>
+      <c r="Q54" s="250"/>
       <c r="R54" s="79">
         <f>('Manpower &amp; time'!H8)*M7/60/R53</f>
         <v>0.2117255240469606</v>
@@ -8668,22 +8668,22 @@
       <c r="J55" s="7"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
-      <c r="N55" s="289"/>
-      <c r="O55" s="289"/>
-      <c r="P55" s="289"/>
-      <c r="Q55" s="289"/>
+      <c r="N55" s="250"/>
+      <c r="O55" s="250"/>
+      <c r="P55" s="250"/>
+      <c r="Q55" s="250"/>
       <c r="R55" s="78"/>
     </row>
     <row r="56" spans="6:18" x14ac:dyDescent="0.25">
       <c r="J56" s="7"/>
       <c r="L56" s="21"/>
       <c r="M56" s="22"/>
-      <c r="N56" s="289" t="s">
+      <c r="N56" s="250" t="s">
         <v>248</v>
       </c>
-      <c r="O56" s="289"/>
-      <c r="P56" s="289"/>
-      <c r="Q56" s="289"/>
+      <c r="O56" s="250"/>
+      <c r="P56" s="250"/>
+      <c r="Q56" s="250"/>
       <c r="R56" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M8/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8693,12 +8693,12 @@
       <c r="J57" s="5"/>
       <c r="L57" s="21"/>
       <c r="M57" s="22"/>
-      <c r="N57" s="289" t="s">
+      <c r="N57" s="250" t="s">
         <v>246</v>
       </c>
-      <c r="O57" s="289"/>
-      <c r="P57" s="289"/>
-      <c r="Q57" s="289"/>
+      <c r="O57" s="250"/>
+      <c r="P57" s="250"/>
+      <c r="Q57" s="250"/>
       <c r="R57" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M8/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8707,12 +8707,12 @@
     <row r="58" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L58" s="21"/>
       <c r="M58" s="22"/>
-      <c r="N58" s="289" t="s">
+      <c r="N58" s="250" t="s">
         <v>247</v>
       </c>
-      <c r="O58" s="289"/>
-      <c r="P58" s="289"/>
-      <c r="Q58" s="289"/>
+      <c r="O58" s="250"/>
+      <c r="P58" s="250"/>
+      <c r="Q58" s="250"/>
       <c r="R58" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M8/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8721,12 +8721,12 @@
     <row r="59" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L59" s="21"/>
       <c r="M59" s="22"/>
-      <c r="N59" s="289" t="s">
+      <c r="N59" s="250" t="s">
         <v>287</v>
       </c>
-      <c r="O59" s="289"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="289"/>
+      <c r="O59" s="250"/>
+      <c r="P59" s="250"/>
+      <c r="Q59" s="250"/>
       <c r="R59" s="78">
         <f>('Manpower &amp; time'!H8+J42)*M$9/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8735,12 +8735,12 @@
     <row r="60" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L60" s="21"/>
       <c r="M60" s="22"/>
-      <c r="N60" s="289" t="s">
+      <c r="N60" s="250" t="s">
         <v>288</v>
       </c>
-      <c r="O60" s="289"/>
-      <c r="P60" s="289"/>
-      <c r="Q60" s="289"/>
+      <c r="O60" s="250"/>
+      <c r="P60" s="250"/>
+      <c r="Q60" s="250"/>
       <c r="R60" s="78">
         <f>('Manpower &amp; time'!H9+J42)*M$9/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8750,12 +8750,12 @@
       <c r="J61" s="7"/>
       <c r="L61" s="21"/>
       <c r="M61" s="22"/>
-      <c r="N61" s="239" t="s">
+      <c r="N61" s="247" t="s">
         <v>289</v>
       </c>
-      <c r="O61" s="240"/>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="241"/>
+      <c r="O61" s="248"/>
+      <c r="P61" s="248"/>
+      <c r="Q61" s="249"/>
       <c r="R61" s="78">
         <f>('Manpower &amp; time'!H11+J42)*M$9/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8764,12 +8764,12 @@
     <row r="62" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L62" s="23"/>
       <c r="M62" s="24"/>
-      <c r="N62" s="244" t="s">
+      <c r="N62" s="241" t="s">
         <v>257</v>
       </c>
-      <c r="O62" s="245"/>
-      <c r="P62" s="245"/>
-      <c r="Q62" s="246"/>
+      <c r="O62" s="242"/>
+      <c r="P62" s="242"/>
+      <c r="Q62" s="243"/>
       <c r="R62" s="80">
         <f>('Manpower &amp; time'!H8+R50)*(M10+M6)/60</f>
         <v>15.87008144897448</v>
@@ -8777,32 +8777,32 @@
     </row>
     <row r="63" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F63" s="11"/>
-      <c r="L63" s="247" t="s">
+      <c r="L63" s="270" t="s">
         <v>18</v>
       </c>
-      <c r="M63" s="248"/>
-      <c r="N63" s="249" t="s">
+      <c r="M63" s="298"/>
+      <c r="N63" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="O63" s="250"/>
-      <c r="P63" s="250"/>
-      <c r="Q63" s="251"/>
+      <c r="O63" s="245"/>
+      <c r="P63" s="245"/>
+      <c r="Q63" s="246"/>
       <c r="R63" s="75">
         <f>SUM(S11:S14)+S17</f>
         <v>23026.025600000001</v>
       </c>
     </row>
     <row r="64" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="L64" s="258" t="s">
+      <c r="L64" s="294" t="s">
         <v>452</v>
       </c>
-      <c r="M64" s="259"/>
-      <c r="N64" s="239" t="s">
+      <c r="M64" s="295"/>
+      <c r="N64" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="O64" s="240"/>
-      <c r="P64" s="240"/>
-      <c r="Q64" s="241"/>
+      <c r="O64" s="248"/>
+      <c r="P64" s="248"/>
+      <c r="Q64" s="249"/>
       <c r="R64" s="76">
         <f>R63/(M13*C7*C8)+J42</f>
         <v>29.749097733177855</v>
@@ -8815,12 +8815,12 @@
       <c r="M65" s="40">
         <v>2.5</v>
       </c>
-      <c r="N65" s="239" t="s">
+      <c r="N65" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="O65" s="240"/>
-      <c r="P65" s="240"/>
-      <c r="Q65" s="241"/>
+      <c r="O65" s="248"/>
+      <c r="P65" s="248"/>
+      <c r="Q65" s="249"/>
       <c r="R65" s="76">
         <f>R64+Q16+Q15</f>
         <v>41.615769733177856</v>
@@ -8833,21 +8833,21 @@
       <c r="M66" s="40">
         <v>0.5</v>
       </c>
-      <c r="N66" s="239"/>
-      <c r="O66" s="240"/>
-      <c r="P66" s="240"/>
-      <c r="Q66" s="241"/>
+      <c r="N66" s="247"/>
+      <c r="O66" s="248"/>
+      <c r="P66" s="248"/>
+      <c r="Q66" s="249"/>
       <c r="R66" s="77"/>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
-      <c r="N67" s="239" t="s">
+      <c r="N67" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="O67" s="240"/>
-      <c r="P67" s="240"/>
-      <c r="Q67" s="241"/>
+      <c r="O67" s="248"/>
+      <c r="P67" s="248"/>
+      <c r="Q67" s="249"/>
       <c r="R67" s="78">
         <f>(J43+R65)*M15/60</f>
         <v>9.0352671777518655E-5</v>
@@ -8856,12 +8856,12 @@
     <row r="68" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L68" s="17"/>
       <c r="M68" s="18"/>
-      <c r="N68" s="239" t="s">
+      <c r="N68" s="247" t="s">
         <v>443</v>
       </c>
-      <c r="O68" s="240"/>
-      <c r="P68" s="240"/>
-      <c r="Q68" s="241"/>
+      <c r="O68" s="248"/>
+      <c r="P68" s="248"/>
+      <c r="Q68" s="249"/>
       <c r="R68" s="79">
         <f>(J43)*M15/60/R67</f>
         <v>0.23234570868306079</v>
@@ -8870,21 +8870,21 @@
     <row r="69" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L69" s="17"/>
       <c r="M69" s="18"/>
-      <c r="N69" s="239"/>
-      <c r="O69" s="240"/>
-      <c r="P69" s="240"/>
-      <c r="Q69" s="241"/>
+      <c r="N69" s="247"/>
+      <c r="O69" s="248"/>
+      <c r="P69" s="248"/>
+      <c r="Q69" s="249"/>
       <c r="R69" s="78"/>
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L70" s="17"/>
       <c r="M70" s="18"/>
-      <c r="N70" s="239" t="s">
+      <c r="N70" s="247" t="s">
         <v>248</v>
       </c>
-      <c r="O70" s="240"/>
-      <c r="P70" s="240"/>
-      <c r="Q70" s="241"/>
+      <c r="O70" s="248"/>
+      <c r="P70" s="248"/>
+      <c r="Q70" s="249"/>
       <c r="R70" s="78">
         <f>(J43+J42)*M$16/60</f>
         <v>2.0258969288926407E-5</v>
@@ -8893,12 +8893,12 @@
     <row r="71" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L71" s="17"/>
       <c r="M71" s="18"/>
-      <c r="N71" s="239" t="s">
+      <c r="N71" s="247" t="s">
         <v>246</v>
       </c>
-      <c r="O71" s="240"/>
-      <c r="P71" s="240"/>
-      <c r="Q71" s="241"/>
+      <c r="O71" s="248"/>
+      <c r="P71" s="248"/>
+      <c r="Q71" s="249"/>
       <c r="R71" s="78">
         <f>(J44+J42)*M$16/60</f>
         <v>2.9921667701624819E-5</v>
@@ -8907,12 +8907,12 @@
     <row r="72" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L72" s="17"/>
       <c r="M72" s="18"/>
-      <c r="N72" s="239" t="s">
+      <c r="N72" s="247" t="s">
         <v>247</v>
       </c>
-      <c r="O72" s="240"/>
-      <c r="P72" s="240"/>
-      <c r="Q72" s="241"/>
+      <c r="O72" s="248"/>
+      <c r="P72" s="248"/>
+      <c r="Q72" s="249"/>
       <c r="R72" s="78">
         <f>(J46+J42)*M$16/60</f>
         <v>4.5109167701624822E-5</v>
@@ -8921,12 +8921,12 @@
     <row r="73" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L73" s="17"/>
       <c r="M73" s="18"/>
-      <c r="N73" s="239" t="s">
+      <c r="N73" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="O73" s="240"/>
-      <c r="P73" s="240"/>
-      <c r="Q73" s="241"/>
+      <c r="O73" s="248"/>
+      <c r="P73" s="248"/>
+      <c r="Q73" s="249"/>
       <c r="R73" s="78">
         <f>(J43+J42)*M$17/60</f>
         <v>1.6207175431141127E-5</v>
@@ -8935,12 +8935,12 @@
     <row r="74" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L74" s="17"/>
       <c r="M74" s="18"/>
-      <c r="N74" s="239" t="s">
+      <c r="N74" s="247" t="s">
         <v>288</v>
       </c>
-      <c r="O74" s="240"/>
-      <c r="P74" s="240"/>
-      <c r="Q74" s="241"/>
+      <c r="O74" s="248"/>
+      <c r="P74" s="248"/>
+      <c r="Q74" s="249"/>
       <c r="R74" s="78">
         <f>(J44+J42)*M$17/60</f>
         <v>2.3937334161299856E-5</v>
@@ -8949,12 +8949,12 @@
     <row r="75" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L75" s="17"/>
       <c r="M75" s="18"/>
-      <c r="N75" s="239" t="s">
+      <c r="N75" s="247" t="s">
         <v>289</v>
       </c>
-      <c r="O75" s="240"/>
-      <c r="P75" s="240"/>
-      <c r="Q75" s="241"/>
+      <c r="O75" s="248"/>
+      <c r="P75" s="248"/>
+      <c r="Q75" s="249"/>
       <c r="R75" s="78">
         <f>(J46+J42)*M$17/60</f>
         <v>3.6087334161299856E-5</v>
@@ -8963,44 +8963,44 @@
     <row r="76" spans="12:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L76" s="17"/>
       <c r="M76" s="18"/>
-      <c r="N76" s="244" t="s">
+      <c r="N76" s="241" t="s">
         <v>257</v>
       </c>
-      <c r="O76" s="245"/>
-      <c r="P76" s="245"/>
-      <c r="Q76" s="246"/>
+      <c r="O76" s="242"/>
+      <c r="P76" s="242"/>
+      <c r="Q76" s="243"/>
       <c r="R76" s="152">
         <f>(J43+R64)*(M14+M18)/60</f>
         <v>14.114977022170395</v>
       </c>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L77" s="255" t="s">
+      <c r="L77" s="291" t="s">
         <v>377</v>
       </c>
-      <c r="M77" s="257"/>
-      <c r="N77" s="249" t="s">
+      <c r="M77" s="293"/>
+      <c r="N77" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="O77" s="250"/>
-      <c r="P77" s="250"/>
-      <c r="Q77" s="251"/>
+      <c r="O77" s="245"/>
+      <c r="P77" s="245"/>
+      <c r="Q77" s="246"/>
       <c r="R77" s="75">
         <f>S19+S20</f>
         <v>16315.562563129759</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L78" s="252" t="s">
+      <c r="L78" s="288" t="s">
         <v>453</v>
       </c>
-      <c r="M78" s="253"/>
-      <c r="N78" s="239" t="s">
+      <c r="M78" s="289"/>
+      <c r="N78" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="O78" s="240"/>
-      <c r="P78" s="240"/>
-      <c r="Q78" s="241"/>
+      <c r="O78" s="248"/>
+      <c r="P78" s="248"/>
+      <c r="Q78" s="249"/>
       <c r="R78" s="76">
         <f>R77/(M21*C7*C8)+J42</f>
         <v>26.318906328890129</v>
@@ -9014,114 +9014,114 @@
         <f>'Laser cutter'!J14</f>
         <v>0.71739130434782605</v>
       </c>
-      <c r="N79" s="239" t="s">
+      <c r="N79" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="O79" s="240"/>
-      <c r="P79" s="240"/>
-      <c r="Q79" s="241"/>
+      <c r="O79" s="248"/>
+      <c r="P79" s="248"/>
+      <c r="Q79" s="249"/>
       <c r="R79" s="76">
         <f>R78+Q21+Q22</f>
         <v>31.86150632889013</v>
       </c>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L80" s="252"/>
-      <c r="M80" s="253"/>
-      <c r="N80" s="239"/>
-      <c r="O80" s="240"/>
-      <c r="P80" s="240"/>
-      <c r="Q80" s="241"/>
+      <c r="L80" s="288"/>
+      <c r="M80" s="289"/>
+      <c r="N80" s="247"/>
+      <c r="O80" s="248"/>
+      <c r="P80" s="248"/>
+      <c r="Q80" s="249"/>
       <c r="R80" s="77"/>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L81" s="252"/>
-      <c r="M81" s="253"/>
-      <c r="N81" s="239" t="s">
+      <c r="L81" s="288"/>
+      <c r="M81" s="289"/>
+      <c r="N81" s="247" t="s">
         <v>378</v>
       </c>
-      <c r="O81" s="240"/>
-      <c r="P81" s="240"/>
-      <c r="Q81" s="241"/>
+      <c r="O81" s="248"/>
+      <c r="P81" s="248"/>
+      <c r="Q81" s="249"/>
       <c r="R81" s="78">
         <f>(J43*0.4+R79)*M23/60</f>
         <v>2.8289877074371322E-4</v>
       </c>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L82" s="252"/>
-      <c r="M82" s="253"/>
-      <c r="N82" s="239" t="s">
+      <c r="L82" s="288"/>
+      <c r="M82" s="289"/>
+      <c r="N82" s="247" t="s">
         <v>443</v>
       </c>
-      <c r="O82" s="240"/>
-      <c r="P82" s="240"/>
-      <c r="Q82" s="241"/>
+      <c r="O82" s="248"/>
+      <c r="P82" s="248"/>
+      <c r="Q82" s="249"/>
       <c r="R82" s="79">
         <f>(J43)*M23/60/R81</f>
         <v>0.34135198007996848</v>
       </c>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L83" s="252"/>
-      <c r="M83" s="253"/>
-      <c r="N83" s="239"/>
-      <c r="O83" s="240"/>
-      <c r="P83" s="240"/>
-      <c r="Q83" s="241"/>
+      <c r="L83" s="288"/>
+      <c r="M83" s="289"/>
+      <c r="N83" s="247"/>
+      <c r="O83" s="248"/>
+      <c r="P83" s="248"/>
+      <c r="Q83" s="249"/>
       <c r="R83" s="139"/>
     </row>
     <row r="84" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L84" s="252"/>
-      <c r="M84" s="253"/>
-      <c r="N84" s="239" t="s">
+      <c r="L84" s="288"/>
+      <c r="M84" s="289"/>
+      <c r="N84" s="247" t="s">
         <v>475</v>
       </c>
-      <c r="O84" s="240"/>
-      <c r="P84" s="240"/>
-      <c r="Q84" s="241"/>
+      <c r="O84" s="248"/>
+      <c r="P84" s="248"/>
+      <c r="Q84" s="249"/>
       <c r="R84" s="151">
         <f>(J43+J42)*M24/60</f>
         <v>0.60776907866779217</v>
       </c>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L85" s="252"/>
-      <c r="M85" s="253"/>
-      <c r="N85" s="239" t="s">
+      <c r="L85" s="288"/>
+      <c r="M85" s="289"/>
+      <c r="N85" s="247" t="s">
         <v>476</v>
       </c>
-      <c r="O85" s="240"/>
-      <c r="P85" s="240"/>
-      <c r="Q85" s="241"/>
+      <c r="O85" s="248"/>
+      <c r="P85" s="248"/>
+      <c r="Q85" s="249"/>
       <c r="R85" s="151">
         <f>(J44+J42)*M24/60</f>
         <v>0.89765003104874452</v>
       </c>
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L86" s="252"/>
-      <c r="M86" s="253"/>
-      <c r="N86" s="239" t="s">
+      <c r="L86" s="288"/>
+      <c r="M86" s="289"/>
+      <c r="N86" s="247" t="s">
         <v>477</v>
       </c>
-      <c r="O86" s="240"/>
-      <c r="P86" s="240"/>
-      <c r="Q86" s="241"/>
+      <c r="O86" s="248"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="249"/>
       <c r="R86" s="151">
         <f>(J43+J42)*M25/60</f>
         <v>0.40517938577852808</v>
       </c>
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L87" s="252"/>
-      <c r="M87" s="253"/>
-      <c r="N87" s="239" t="s">
+      <c r="L87" s="288"/>
+      <c r="M87" s="289"/>
+      <c r="N87" s="247" t="s">
         <v>478</v>
       </c>
-      <c r="O87" s="240"/>
-      <c r="P87" s="240"/>
-      <c r="Q87" s="241"/>
+      <c r="O87" s="248"/>
+      <c r="P87" s="248"/>
+      <c r="Q87" s="249"/>
       <c r="R87" s="151">
         <f>(J44+J42)*M$25/60</f>
         <v>0.59843335403249631</v>
@@ -9130,28 +9130,28 @@
     <row r="88" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L88" s="32"/>
       <c r="M88" s="33"/>
-      <c r="N88" s="244" t="s">
+      <c r="N88" s="241" t="s">
         <v>257</v>
       </c>
-      <c r="O88" s="245"/>
-      <c r="P88" s="245"/>
-      <c r="Q88" s="246"/>
+      <c r="O88" s="242"/>
+      <c r="P88" s="242"/>
+      <c r="Q88" s="243"/>
       <c r="R88" s="80">
         <f>(J43+R78)*(M26+M22)/60</f>
         <v>8.4315269268150832</v>
       </c>
     </row>
     <row r="89" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L89" s="242" t="s">
+      <c r="L89" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="M89" s="243"/>
-      <c r="N89" s="249" t="s">
+      <c r="M89" s="300"/>
+      <c r="N89" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="O89" s="250"/>
-      <c r="P89" s="250"/>
-      <c r="Q89" s="251"/>
+      <c r="O89" s="245"/>
+      <c r="P89" s="245"/>
+      <c r="Q89" s="246"/>
       <c r="R89" s="153">
         <f>SUM(S27:S32)</f>
         <v>2176.9659999999999</v>
@@ -9160,12 +9160,12 @@
     <row r="90" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L90" s="229"/>
       <c r="M90" s="230"/>
-      <c r="N90" s="239" t="s">
+      <c r="N90" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="O90" s="240"/>
-      <c r="P90" s="240"/>
-      <c r="Q90" s="241"/>
+      <c r="O90" s="248"/>
+      <c r="P90" s="248"/>
+      <c r="Q90" s="249"/>
       <c r="R90" s="95">
         <f>R89/(M29*C7*C8)+J42</f>
         <v>13.419947043954794</v>
@@ -9175,12 +9175,12 @@
     <row r="91" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L91" s="21"/>
       <c r="M91" s="22"/>
-      <c r="N91" s="239" t="s">
+      <c r="N91" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="O91" s="240"/>
-      <c r="P91" s="240"/>
-      <c r="Q91" s="241"/>
+      <c r="O91" s="248"/>
+      <c r="P91" s="248"/>
+      <c r="Q91" s="249"/>
       <c r="R91" s="95">
         <f>R90+Q33</f>
         <v>13.517822043954794</v>
@@ -9189,21 +9189,21 @@
     <row r="92" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L92" s="21"/>
       <c r="M92" s="22"/>
-      <c r="N92" s="239"/>
-      <c r="O92" s="240"/>
-      <c r="P92" s="240"/>
-      <c r="Q92" s="241"/>
+      <c r="N92" s="247"/>
+      <c r="O92" s="248"/>
+      <c r="P92" s="248"/>
+      <c r="Q92" s="249"/>
       <c r="R92" s="139"/>
     </row>
     <row r="93" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L93" s="21"/>
       <c r="M93" s="22"/>
-      <c r="N93" s="239" t="s">
+      <c r="N93" s="247" t="s">
         <v>425</v>
       </c>
-      <c r="O93" s="240"/>
-      <c r="P93" s="240"/>
-      <c r="Q93" s="241"/>
+      <c r="O93" s="248"/>
+      <c r="P93" s="248"/>
+      <c r="Q93" s="249"/>
       <c r="R93" s="59">
         <f>Q34+Q36+(R91+J45)*M30/60</f>
         <v>117.38840627635136</v>
@@ -9212,12 +9212,12 @@
     <row r="94" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L94" s="21"/>
       <c r="M94" s="22"/>
-      <c r="N94" s="239" t="s">
+      <c r="N94" s="247" t="s">
         <v>426</v>
       </c>
-      <c r="O94" s="240"/>
-      <c r="P94" s="240"/>
-      <c r="Q94" s="241"/>
+      <c r="O94" s="248"/>
+      <c r="P94" s="248"/>
+      <c r="Q94" s="249"/>
       <c r="R94" s="95">
         <f>Q35+Q36+(R91+J45)*M30/60</f>
         <v>117.3533442173817</v>
@@ -9226,23 +9226,23 @@
     <row r="95" spans="12:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L95" s="23"/>
       <c r="M95" s="24"/>
-      <c r="N95" s="244"/>
-      <c r="O95" s="245"/>
-      <c r="P95" s="245"/>
-      <c r="Q95" s="246"/>
+      <c r="N95" s="241"/>
+      <c r="O95" s="242"/>
+      <c r="P95" s="242"/>
+      <c r="Q95" s="243"/>
       <c r="R95" s="71"/>
     </row>
     <row r="96" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L96" s="247" t="s">
+      <c r="L96" s="270" t="s">
         <v>363</v>
       </c>
-      <c r="M96" s="248"/>
-      <c r="N96" s="249" t="s">
+      <c r="M96" s="298"/>
+      <c r="N96" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="O96" s="250"/>
-      <c r="P96" s="250"/>
-      <c r="Q96" s="251"/>
+      <c r="O96" s="245"/>
+      <c r="P96" s="245"/>
+      <c r="Q96" s="246"/>
       <c r="R96" s="75">
         <f>SUM(S37:S40)</f>
         <v>4775</v>
@@ -9251,12 +9251,12 @@
     <row r="97" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L97" s="227"/>
       <c r="M97" s="228"/>
-      <c r="N97" s="239" t="s">
+      <c r="N97" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="O97" s="240"/>
-      <c r="P97" s="240"/>
-      <c r="Q97" s="241"/>
+      <c r="O97" s="248"/>
+      <c r="P97" s="248"/>
+      <c r="Q97" s="249"/>
       <c r="R97" s="76">
         <f>R96/(M39*C7*C8)+J42</f>
         <v>18.514599441995351</v>
@@ -9265,12 +9265,12 @@
     <row r="98" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L98" s="17"/>
       <c r="M98" s="18"/>
-      <c r="N98" s="239" t="s">
+      <c r="N98" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="O98" s="240"/>
-      <c r="P98" s="240"/>
-      <c r="Q98" s="241"/>
+      <c r="O98" s="248"/>
+      <c r="P98" s="248"/>
+      <c r="Q98" s="249"/>
       <c r="R98" s="76">
         <f>R97+Q42+Q41</f>
         <v>28.890439441995351</v>
@@ -9279,22 +9279,22 @@
     <row r="99" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L99" s="17"/>
       <c r="M99" s="18"/>
-      <c r="N99" s="239"/>
-      <c r="O99" s="240"/>
-      <c r="P99" s="240"/>
-      <c r="Q99" s="241"/>
+      <c r="N99" s="247"/>
+      <c r="O99" s="248"/>
+      <c r="P99" s="248"/>
+      <c r="Q99" s="249"/>
       <c r="R99" s="77"/>
       <c r="U99" s="9"/>
     </row>
     <row r="100" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L100" s="17"/>
       <c r="M100" s="18"/>
-      <c r="N100" s="239" t="s">
+      <c r="N100" s="247" t="s">
         <v>245</v>
       </c>
-      <c r="O100" s="240"/>
-      <c r="P100" s="240"/>
-      <c r="Q100" s="241"/>
+      <c r="O100" s="248"/>
+      <c r="P100" s="248"/>
+      <c r="Q100" s="249"/>
       <c r="R100" s="78">
         <f>(J43+R98)*M41/60</f>
         <v>2.0743136387664342E-4</v>
@@ -9303,28 +9303,28 @@
     <row r="101" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L101" s="19"/>
       <c r="M101" s="20"/>
-      <c r="N101" s="244" t="s">
+      <c r="N101" s="241" t="s">
         <v>257</v>
       </c>
-      <c r="O101" s="245"/>
-      <c r="P101" s="245"/>
-      <c r="Q101" s="246"/>
+      <c r="O101" s="242"/>
+      <c r="P101" s="242"/>
+      <c r="Q101" s="243"/>
       <c r="R101" s="80">
         <f>(J43+R97)*(M40+M42)/60</f>
         <v>7.7776081938321706</v>
       </c>
     </row>
     <row r="102" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L102" s="247" t="s">
+      <c r="L102" s="270" t="s">
         <v>571</v>
       </c>
-      <c r="M102" s="248"/>
-      <c r="N102" s="249" t="s">
+      <c r="M102" s="298"/>
+      <c r="N102" s="244" t="s">
         <v>258</v>
       </c>
-      <c r="O102" s="250"/>
-      <c r="P102" s="250"/>
-      <c r="Q102" s="251"/>
+      <c r="O102" s="245"/>
+      <c r="P102" s="245"/>
+      <c r="Q102" s="246"/>
       <c r="R102" s="75">
         <f>'Card oven'!B2/5</f>
         <v>399</v>
@@ -9337,12 +9337,12 @@
       <c r="M103" s="233">
         <v>0.3</v>
       </c>
-      <c r="N103" s="239" t="s">
+      <c r="N103" s="247" t="s">
         <v>259</v>
       </c>
-      <c r="O103" s="240"/>
-      <c r="P103" s="240"/>
-      <c r="Q103" s="241"/>
+      <c r="O103" s="248"/>
+      <c r="P103" s="248"/>
+      <c r="Q103" s="249"/>
       <c r="R103" s="76">
         <f>R102/(M103*C7*C8)+J42</f>
         <v>12.548263146711687</v>
@@ -9355,12 +9355,12 @@
       <c r="M104" s="228">
         <v>5</v>
       </c>
-      <c r="N104" s="239" t="s">
+      <c r="N104" s="247" t="s">
         <v>260</v>
       </c>
-      <c r="O104" s="240"/>
-      <c r="P104" s="240"/>
-      <c r="Q104" s="241"/>
+      <c r="O104" s="248"/>
+      <c r="P104" s="248"/>
+      <c r="Q104" s="249"/>
       <c r="R104" s="76">
         <f>R103+U99+M44*C12</f>
         <v>12.704863146711686</v>
@@ -9369,13 +9369,13 @@
     <row r="105" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L105" s="17"/>
       <c r="M105" s="18"/>
-      <c r="N105" s="239" t="s">
+      <c r="N105" s="247" t="s">
         <v>569</v>
       </c>
-      <c r="O105" s="240"/>
-      <c r="P105" s="240"/>
-      <c r="Q105" s="241"/>
-      <c r="R105" s="341">
+      <c r="O105" s="248"/>
+      <c r="P105" s="248"/>
+      <c r="Q105" s="249"/>
+      <c r="R105" s="240">
         <f>J43*M46/60</f>
         <v>1.0496527777777778</v>
       </c>
@@ -9383,31 +9383,31 @@
     <row r="106" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L106" s="17"/>
       <c r="M106" s="18"/>
-      <c r="N106" s="239"/>
-      <c r="O106" s="240"/>
-      <c r="P106" s="240"/>
-      <c r="Q106" s="241"/>
+      <c r="N106" s="247"/>
+      <c r="O106" s="248"/>
+      <c r="P106" s="248"/>
+      <c r="Q106" s="249"/>
       <c r="R106" s="151"/>
     </row>
     <row r="107" spans="12:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L107" s="19"/>
       <c r="M107" s="20"/>
-      <c r="N107" s="244" t="s">
+      <c r="N107" s="241" t="s">
         <v>565</v>
       </c>
-      <c r="O107" s="245"/>
-      <c r="P107" s="245"/>
-      <c r="Q107" s="246"/>
+      <c r="O107" s="242"/>
+      <c r="P107" s="242"/>
+      <c r="Q107" s="243"/>
       <c r="R107" s="80">
         <f>R104*M104/60+R105</f>
         <v>2.1083913733370849</v>
       </c>
     </row>
     <row r="110" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L110" s="238" t="s">
+      <c r="L110" s="299" t="s">
         <v>566</v>
       </c>
-      <c r="M110" s="238"/>
+      <c r="M110" s="299"/>
     </row>
     <row r="111" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L111" s="236" t="s">
@@ -9444,19 +9444,72 @@
     <row r="118" spans="12:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="N62:Q62"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="N70:Q70"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="N73:Q73"/>
-    <mergeCell ref="N78:Q78"/>
-    <mergeCell ref="N79:Q79"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="N81:Q81"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N95:Q95"/>
+    <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N57:Q57"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="N60:Q60"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="N56:Q56"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="N54:Q54"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="N49:Q49"/>
     <mergeCell ref="N61:Q61"/>
     <mergeCell ref="N74:Q74"/>
     <mergeCell ref="N76:Q76"/>
@@ -9473,75 +9526,22 @@
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="N63:Q63"/>
     <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="N62:Q62"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="N70:Q70"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="N73:Q73"/>
+    <mergeCell ref="N78:Q78"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="N80:Q80"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N82:Q82"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="N84:Q84"/>
     <mergeCell ref="N85:Q85"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="N56:Q56"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="N54:Q54"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="N57:Q57"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="N60:Q60"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L43:M43"/>
     <mergeCell ref="N87:Q87"/>
     <mergeCell ref="N88:Q88"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="N94:Q94"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="N105:Q105"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="N101:Q101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12332,58 +12332,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="305" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="309" t="s">
+      <c r="C1" s="312" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="310"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="313"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="303"/>
+      <c r="A2" s="306"/>
       <c r="B2" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="314" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="312"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="315"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="303"/>
+      <c r="A3" s="306"/>
       <c r="B3" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="313" t="s">
+      <c r="C3" s="316" t="s">
         <v>527</v>
       </c>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="317"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="304"/>
+      <c r="A4" s="307"/>
       <c r="B4" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="318" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="316"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="319"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="305" t="s">
+      <c r="A7" s="308" t="s">
         <v>284</v>
       </c>
       <c r="B7" s="165" t="s">
@@ -12409,7 +12409,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="306"/>
+      <c r="A8" s="309"/>
       <c r="B8" s="163" t="s">
         <v>135</v>
       </c>
@@ -12436,7 +12436,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="306"/>
+      <c r="A9" s="309"/>
       <c r="B9" s="159" t="s">
         <v>208</v>
       </c>
@@ -12463,7 +12463,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="306"/>
+      <c r="A10" s="309"/>
       <c r="B10" s="159" t="s">
         <v>437</v>
       </c>
@@ -12490,7 +12490,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="307"/>
+      <c r="A11" s="310"/>
       <c r="B11" s="161" t="s">
         <v>209</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="A14" s="181"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="298" t="s">
+      <c r="A15" s="301" t="s">
         <v>493</v>
       </c>
       <c r="B15" s="165" t="s">
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="308"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="184" t="s">
         <v>138</v>
       </c>
@@ -12553,7 +12553,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="99" t="s">
         <v>139</v>
       </c>
@@ -12562,7 +12562,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="308"/>
+      <c r="A18" s="311"/>
       <c r="B18" s="99" t="s">
         <v>140</v>
       </c>
@@ -12571,7 +12571,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="308"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="99" t="s">
         <v>141</v>
       </c>
@@ -12580,7 +12580,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="308"/>
+      <c r="A20" s="311"/>
       <c r="B20" s="99" t="s">
         <v>142</v>
       </c>
@@ -12590,7 +12590,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="308"/>
+      <c r="A21" s="311"/>
       <c r="B21" s="99" t="s">
         <v>143</v>
       </c>
@@ -12600,7 +12600,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="299"/>
+      <c r="A22" s="302"/>
       <c r="B22" s="100" t="s">
         <v>439</v>
       </c>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="298" t="s">
+      <c r="A26" s="301" t="s">
         <v>495</v>
       </c>
       <c r="B26" s="170"/>
@@ -12647,7 +12647,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="308"/>
+      <c r="A27" s="311"/>
       <c r="B27" s="195" t="s">
         <v>135</v>
       </c>
@@ -12682,7 +12682,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="308"/>
+      <c r="A28" s="311"/>
       <c r="B28" s="196" t="s">
         <v>208</v>
       </c>
@@ -12705,7 +12705,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="308"/>
+      <c r="A29" s="311"/>
       <c r="B29" s="196" t="s">
         <v>436</v>
       </c>
@@ -12730,7 +12730,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="308"/>
+      <c r="A30" s="311"/>
       <c r="B30" s="196" t="s">
         <v>209</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="308"/>
+      <c r="A31" s="311"/>
       <c r="B31" s="196" t="s">
         <v>496</v>
       </c>
@@ -12801,7 +12801,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="308"/>
+      <c r="A32" s="311"/>
       <c r="B32" s="196" t="s">
         <v>497</v>
       </c>
@@ -12847,7 +12847,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="299"/>
+      <c r="A33" s="302"/>
       <c r="B33" s="197"/>
       <c r="C33" s="100"/>
       <c r="D33" s="60" t="s">
@@ -12867,21 +12867,21 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="298" t="s">
+      <c r="A36" s="301" t="s">
         <v>494</v>
       </c>
-      <c r="B36" s="271" t="s">
+      <c r="B36" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="300">
+      <c r="C36" s="303">
         <f>SUMPRODUCT(E8:E11*K27:K30)</f>
         <v>14044.629000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="299"/>
-      <c r="B37" s="269"/>
-      <c r="C37" s="301"/>
+      <c r="A37" s="302"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="304"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="186"/>
@@ -12944,89 +12944,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="319"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="322"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="326" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="327" t="s">
+      <c r="B2" s="330" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="328"/>
-      <c r="D2" s="329"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="332"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="324"/>
-      <c r="B3" s="330" t="s">
+      <c r="A3" s="327"/>
+      <c r="B3" s="333" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="332"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="335"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="324"/>
-      <c r="B4" s="330" t="s">
+      <c r="A4" s="327"/>
+      <c r="B4" s="333" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="331"/>
-      <c r="D4" s="332"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="335"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="198" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="274">
+      <c r="B5" s="273">
         <v>38.64</v>
       </c>
-      <c r="C5" s="275"/>
-      <c r="D5" s="325"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="328"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="198" t="s">
         <v>502</v>
       </c>
-      <c r="B6" s="274">
+      <c r="B6" s="273">
         <f>(24*2 + 7.5)*0.8+16+14</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="C6" s="275"/>
-      <c r="D6" s="325"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="328"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="198" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="274">
+      <c r="B7" s="273">
         <f>B6*B5</f>
         <v>2874.8160000000003</v>
       </c>
-      <c r="C7" s="275"/>
-      <c r="D7" s="325"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="328"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="199" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="269">
+      <c r="B8" s="267">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="C8" s="287"/>
-      <c r="D8" s="326"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="329"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="320" t="s">
+      <c r="A10" s="323" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="321"/>
-      <c r="C10" s="321"/>
-      <c r="D10" s="322"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="325"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="163"/>
@@ -13283,7 +13283,7 @@
       <c r="F12" s="212"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="333" t="s">
+      <c r="A13" s="336" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="99" t="s">
@@ -13302,7 +13302,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="334"/>
+      <c r="A14" s="337"/>
       <c r="B14" s="99" t="s">
         <v>122</v>
       </c>
@@ -13319,7 +13319,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="334"/>
+      <c r="A15" s="337"/>
       <c r="B15" s="99" t="s">
         <v>124</v>
       </c>
@@ -13336,7 +13336,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="335"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="99" t="s">
         <v>126</v>
       </c>
@@ -13353,7 +13353,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="333" t="s">
+      <c r="A17" s="336" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="99" t="s">
@@ -13372,7 +13372,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="335"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="203" t="s">
         <v>176</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="F2" s="216"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="339" t="s">
         <v>511</v>
       </c>
       <c r="B3" s="98" t="s">
@@ -13567,7 +13567,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="337"/>
+      <c r="A4" s="340"/>
       <c r="B4" s="100" t="s">
         <v>535</v>
       </c>
@@ -13588,7 +13588,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="336" t="s">
+      <c r="A6" s="339" t="s">
         <v>512</v>
       </c>
       <c r="B6" s="98" t="s">
@@ -13607,7 +13607,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="338"/>
+      <c r="A7" s="341"/>
       <c r="B7" s="99" t="s">
         <v>536</v>
       </c>
@@ -13624,7 +13624,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="338"/>
+      <c r="A8" s="341"/>
       <c r="B8" s="99" t="s">
         <v>151</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="338"/>
+      <c r="A9" s="341"/>
       <c r="B9" s="99" t="s">
         <v>167</v>
       </c>
@@ -13656,7 +13656,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="337"/>
+      <c r="A10" s="340"/>
       <c r="B10" s="100" t="s">
         <v>169</v>
       </c>
@@ -13675,7 +13675,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="336" t="s">
+      <c r="A12" s="339" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="98" t="s">
@@ -13694,7 +13694,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="338"/>
+      <c r="A13" s="341"/>
       <c r="B13" s="99" t="s">
         <v>149</v>
       </c>
@@ -13711,7 +13711,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="337"/>
+      <c r="A14" s="340"/>
       <c r="B14" s="100" t="s">
         <v>156</v>
       </c>
@@ -13733,7 +13733,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="336" t="s">
+      <c r="A16" s="339" t="s">
         <v>514</v>
       </c>
       <c r="B16" s="98" t="s">
@@ -13752,7 +13752,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="338"/>
+      <c r="A17" s="341"/>
       <c r="B17" s="99" t="s">
         <v>153</v>
       </c>
@@ -13769,7 +13769,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="338"/>
+      <c r="A18" s="341"/>
       <c r="B18" s="99" t="s">
         <v>154</v>
       </c>
@@ -13786,7 +13786,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="337"/>
+      <c r="A19" s="340"/>
       <c r="B19" s="100" t="s">
         <v>155</v>
       </c>
@@ -13827,7 +13827,7 @@
       <c r="A22" s="183"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="336" t="s">
+      <c r="A23" s="339" t="s">
         <v>516</v>
       </c>
       <c r="B23" s="98" t="s">
@@ -13843,7 +13843,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="337"/>
+      <c r="A24" s="340"/>
       <c r="B24" s="100" t="s">
         <v>256</v>
       </c>
@@ -14102,7 +14102,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="339" t="s">
         <v>520</v>
       </c>
       <c r="B3" s="98" t="s">
@@ -14123,7 +14123,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="338"/>
+      <c r="A4" s="341"/>
       <c r="B4" s="99" t="s">
         <v>86</v>
       </c>
@@ -14142,7 +14142,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="338"/>
+      <c r="A5" s="341"/>
       <c r="B5" s="99" t="s">
         <v>90</v>
       </c>
@@ -14161,7 +14161,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="338"/>
+      <c r="A6" s="341"/>
       <c r="B6" s="99" t="s">
         <v>329</v>
       </c>
@@ -14180,7 +14180,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="338"/>
+      <c r="A7" s="341"/>
       <c r="B7" s="99" t="s">
         <v>358</v>
       </c>
@@ -14196,7 +14196,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="338"/>
+      <c r="A8" s="341"/>
       <c r="B8" s="99" t="s">
         <v>356</v>
       </c>
@@ -14212,7 +14212,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="337"/>
+      <c r="A9" s="340"/>
       <c r="B9" s="100" t="s">
         <v>361</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="336" t="s">
+      <c r="A11" s="339" t="s">
         <v>521</v>
       </c>
       <c r="B11" s="98" t="s">
@@ -14252,7 +14252,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="337"/>
+      <c r="A12" s="340"/>
       <c r="B12" s="100" t="s">
         <v>202</v>
       </c>
@@ -14299,7 +14299,7 @@
       <c r="A15" s="183"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="336" t="s">
+      <c r="A16" s="339" t="s">
         <v>522</v>
       </c>
       <c r="B16" s="98" t="s">
@@ -14319,7 +14319,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="338"/>
+      <c r="A17" s="341"/>
       <c r="B17" s="99" t="s">
         <v>335</v>
       </c>
@@ -14337,7 +14337,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="338"/>
+      <c r="A18" s="341"/>
       <c r="B18" s="99" t="s">
         <v>337</v>
       </c>
@@ -14355,7 +14355,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="338"/>
+      <c r="A19" s="341"/>
       <c r="B19" s="99" t="s">
         <v>339</v>
       </c>
@@ -14373,7 +14373,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="338"/>
+      <c r="A20" s="341"/>
       <c r="B20" s="99" t="s">
         <v>341</v>
       </c>
@@ -14391,7 +14391,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="338"/>
+      <c r="A21" s="341"/>
       <c r="B21" s="99" t="s">
         <v>344</v>
       </c>
@@ -14409,7 +14409,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="338"/>
+      <c r="A22" s="341"/>
       <c r="B22" s="99" t="s">
         <v>270</v>
       </c>
@@ -14425,7 +14425,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="338"/>
+      <c r="A23" s="341"/>
       <c r="B23" s="99" t="s">
         <v>268</v>
       </c>
@@ -14441,7 +14441,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="337"/>
+      <c r="A24" s="340"/>
       <c r="B24" s="100" t="s">
         <v>331</v>
       </c>
@@ -14462,7 +14462,7 @@
       <c r="A25" s="183"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="336" t="s">
+      <c r="A26" s="339" t="s">
         <v>523</v>
       </c>
       <c r="B26" s="98" t="s">
@@ -14482,7 +14482,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="337"/>
+      <c r="A27" s="340"/>
       <c r="B27" s="100" t="s">
         <v>456</v>
       </c>
